--- a/admin/report2.xlsx
+++ b/admin/report2.xlsx
@@ -395,7 +395,7 @@
         <v>156</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
